--- a/Security_UseCase_Library.xlsx
+++ b/Security_UseCase_Library.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70174ac422d41def/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jor-El\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1B602742-5ACC-43B2-8262-02666A262A85}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F7AE91CC-CDED-41F8-8A65-599EC94F230D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7800" windowWidth="27430" windowHeight="11160" tabRatio="603" xr2:uid="{EE7B458D-6060-45BC-A3B6-2902E40EF5B4}"/>
+    <workbookView xWindow="0" yWindow="9600" windowWidth="27429" windowHeight="11160" tabRatio="603" xr2:uid="{EE7B458D-6060-45BC-A3B6-2902E40EF5B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="144">
   <si>
     <t>Use Case</t>
   </si>
@@ -295,18 +295,9 @@
     <t>Threat Intel - External Bot traffic detected</t>
   </si>
   <si>
-    <t xml:space="preserve">Expternal Port Scan can be detected using either firewall log activity or IDS/IPS signatures. The benefit of this is to give context of which systems in your external environment are being scoped/targetted. This information should be used in reporting and threat intelligence gathering. </t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
-    <t xml:space="preserve">Expternal Ping Sweeps, like port scans, can also be detected using either firewall log activity or IDS/IPS signatures. The benefit of this is to give context of which systems in your external environment are being scoped/targetted. This information should be used in reporting and threat intelligence gathering. </t>
-  </si>
-  <si>
-    <t>Expternal Ping Sweeps, like port scans, can also be detected using Network IDS/IPS, or WAF. The benefit of this is to give context of which systems in your external environment are being scoped/targetted. This information should be used in reporting and threat intelligence gathering. Based of the threat Intelligence gathered, there should be specific actions that should lead to mitigating threats that scan the network. In addition to this</t>
-  </si>
-  <si>
     <t>Extnernal port scan [Firewall]</t>
   </si>
   <si>
@@ -358,9 +349,6 @@
     <t>External Ping Sweep [IDS/IPS]</t>
   </si>
   <si>
-    <t>External Exploit attempt detected [IDS/IPS]</t>
-  </si>
-  <si>
     <t>External Zone Transfer Request Detected [IDS/IPS]</t>
   </si>
   <si>
@@ -370,9 +358,6 @@
     <t>Email Sender Domain Unresolved</t>
   </si>
   <si>
-    <t>Suspiciuos Email Link Detected</t>
-  </si>
-  <si>
     <t xml:space="preserve">Email Sender Domain Newly Registered </t>
   </si>
   <si>
@@ -442,9 +427,6 @@
     <t>Extnernal Vulnerability Scan [WAF]</t>
   </si>
   <si>
-    <t>External Ping Sweep [WAF]</t>
-  </si>
-  <si>
     <t>External Zone Transfer Request Detected [Firewall]</t>
   </si>
   <si>
@@ -452,13 +434,52 @@
   </si>
   <si>
     <t xml:space="preserve">This use case correlates email addresses from gathered threat intelligence, that have been used or are being used by attackers. </t>
+  </si>
+  <si>
+    <t>External Exploit attempt blocked/detected [IDS/IPS]</t>
+  </si>
+  <si>
+    <t>External Ping Sweeps, like port scans, can also be detected using Network IDS/IPS, or WAF. The benefit of this is to give context of which systems in your external environment are being scoped/targetted. This information should be used in reporting and threat intelligence gathering.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External Port Scan can be detected using either firewall log activity or IDS/IPS signatures. The benefit of this is to give context of which systems in your external environment are being scoped/targetted. This information should be used in reporting and threat intelligence gathering. </t>
+  </si>
+  <si>
+    <t>External Vulnerability Scans are indicative of a more serious threat than just port scans or ping sweeps. Any actor at this stage of  the attack life cycle is most likely looking for low hanging fruit (easily compromisable) vulnerabilities, or is heavily profiling the enviornment. External vulnerability scans should be done regularly by the vulnerability assessment/management team and their activity should be whitelisted and everything else blocked from the perimeter. This information should be used in reporting and threat intelligence gathering.</t>
+  </si>
+  <si>
+    <t>Just like External vulnerability scans,  this detection and prevention mechanism is done by the Web Application Firewall and focuses on web application attacks. Any actor at this stage of  the attack life cycle is most likely looking for low hanging fruit (easily compromisable) vulnerabilities, or is heavily profiling the enviornment. External vulnerability scans should be done regularly by the vulnerability assessment/management team and their activity should be whitelisted and everything else blocked from the perimeter. This information should be used in reporting and threat intelligence gathering.</t>
+  </si>
+  <si>
+    <t>External Ping Sweep [Firewall]</t>
+  </si>
+  <si>
+    <t>Technical Weakness Identification|Analyze application security posture</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Technical Information Gathering|Conduct active scanning</t>
+  </si>
+  <si>
+    <t>Technical Information Gathering|Discover target logon/email address format</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Suspicious Email Link Detected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This use case depends on whether an email sanbox has been set up the corporate network environment, and whether that has been configured to look for suspicious binaries or script code in email attachments (opensource example isCuckoo Sandbox https://cuckoosandbox.org/ ). If an attachment is found to be suspious it should be blocked (if there is a mechanism to do so) and an alert should be generated. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the domain name of an email sender has been registered within the lasst [x] days (recommendation is 3), it should be considered as suspicious. An alert should be generated for each domain that is detected, and that alert should contain an aggregate of all emails sent from this domain. This use case depends on obtaining the sender domain and running it against up-to-date whois data to verify when the domain was registered. If this alert is seen within an organisation, it is likely that a phishing campaign may be happening. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,8 +518,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,8 +588,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -570,12 +617,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -610,9 +674,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -938,39 +1014,39 @@
   <dimension ref="A1:O127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.6328125" customWidth="1"/>
-    <col min="2" max="2" width="31.81640625" customWidth="1"/>
-    <col min="3" max="3" width="40.81640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="5" max="5" width="55.90625" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" customWidth="1"/>
-    <col min="7" max="7" width="20.90625" customWidth="1"/>
-    <col min="8" max="8" width="23.90625" customWidth="1"/>
-    <col min="9" max="9" width="20.90625" customWidth="1"/>
-    <col min="10" max="10" width="27.7265625" customWidth="1"/>
-    <col min="11" max="11" width="46.36328125" customWidth="1"/>
-    <col min="13" max="13" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.08984375" style="23" customWidth="1"/>
+    <col min="1" max="1" width="26.61328125" customWidth="1"/>
+    <col min="2" max="2" width="31.84375" customWidth="1"/>
+    <col min="3" max="3" width="40.84375" customWidth="1"/>
+    <col min="4" max="4" width="20.61328125" customWidth="1"/>
+    <col min="5" max="5" width="55.921875" customWidth="1"/>
+    <col min="6" max="6" width="19.07421875" customWidth="1"/>
+    <col min="7" max="7" width="20.921875" customWidth="1"/>
+    <col min="8" max="8" width="23.921875" customWidth="1"/>
+    <col min="9" max="9" width="20.921875" customWidth="1"/>
+    <col min="10" max="10" width="27.69140625" customWidth="1"/>
+    <col min="11" max="11" width="46.3828125" customWidth="1"/>
+    <col min="13" max="13" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.07421875" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -1003,10 +1079,10 @@
         <v>16</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -1025,15 +1101,15 @@
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
     </row>
-    <row r="3" spans="1:15" ht="145" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>10</v>
+    <row r="3" spans="1:15" ht="146.15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="31" t="s">
+        <v>139</v>
       </c>
       <c r="C3" t="s">
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>70</v>
@@ -1052,194 +1128,216 @@
       </c>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:15" ht="145" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+    <row r="4" spans="1:15" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="29" t="s">
         <v>80</v>
       </c>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+    <row r="5" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="29" t="s">
         <v>81</v>
       </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
+      <c r="H6" t="s">
+        <v>140</v>
+      </c>
       <c r="O6" s="11"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>10</v>
+    <row r="7" spans="1:15" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="B7" s="30" t="s">
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" ht="74.599999999999994" x14ac:dyDescent="0.6">
+      <c r="B8" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
         <v>94</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" t="s">
         <v>84</v>
-      </c>
-      <c r="F7" t="s">
-        <v>85</v>
-      </c>
-      <c r="O7" s="11"/>
-    </row>
-    <row r="8" spans="1:15" ht="74.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" t="s">
-        <v>85</v>
       </c>
       <c r="G8" s="27"/>
       <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>10</v>
+    <row r="9" spans="1:15" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="B9" s="30" t="s">
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="B10" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" t="s">
-        <v>85</v>
-      </c>
-      <c r="O9" s="11"/>
-    </row>
-    <row r="10" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" t="s">
-        <v>97</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>86</v>
+        <v>132</v>
+      </c>
+      <c r="F10" t="s">
+        <v>84</v>
       </c>
       <c r="O10" s="11"/>
     </row>
-    <row r="11" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:15" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="B11" s="30" t="s">
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
       </c>
       <c r="O11" s="11"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>10</v>
+    <row r="12" spans="1:15" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="B12" s="30" t="s">
+        <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
       <c r="O12" s="11"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="O13" s="11"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="95.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
-        <v>83</v>
+      <c r="C14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
       </c>
       <c r="O14" s="11"/>
     </row>
-    <row r="15" spans="1:15" ht="95.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="87.45" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
       <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="87.45" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>94</v>
@@ -1247,262 +1345,271 @@
       <c r="E16" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
       <c r="O16" s="11"/>
     </row>
-    <row r="17" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>82</v>
+      <c r="C17" t="s">
+        <v>33</v>
       </c>
       <c r="O17" s="11"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="189.45" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
-        <v>33</v>
+      <c r="C18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" t="s">
+        <v>76</v>
       </c>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="1:15" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" t="s">
-        <v>76</v>
-      </c>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="24"/>
+      <c r="C20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="O20" s="11"/>
     </row>
-    <row r="21" spans="1:15" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>100</v>
+      <c r="C21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="O21" s="11"/>
     </row>
-    <row r="22" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="102" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="O22" s="11"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="102" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>103</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="O23" s="11"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="131.15" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>98</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="O24" s="11"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O25" s="11"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="O26" s="11"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="O27" s="11"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="O28" s="11"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="O29" s="11"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
         <v>116</v>
       </c>
       <c r="O30" s="11"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D31" t="s">
+        <v>95</v>
+      </c>
+      <c r="O31" s="11"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="C32" t="s">
         <v>121</v>
       </c>
-      <c r="O31" s="11"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
+      <c r="D32" t="s">
+        <v>122</v>
+      </c>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
         <v>10</v>
       </c>
-      <c r="C32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" t="s">
-        <v>98</v>
-      </c>
-      <c r="O32" s="11"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C33" t="s">
-        <v>126</v>
+      <c r="C33" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="O33" s="11"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O34" s="11"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="O35" s="11"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O36" s="11"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O37" s="11"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O38" s="11"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O39" s="11"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O40" s="11"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
         <v>62</v>
       </c>
@@ -1521,13 +1628,13 @@
       <c r="N41" s="6"/>
       <c r="O41" s="11"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C42" t="s">
         <v>28</v>
       </c>
       <c r="O42" s="11"/>
     </row>
-    <row r="43" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -1536,7 +1643,7 @@
       </c>
       <c r="O43" s="11"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
         <v>58</v>
       </c>
@@ -1545,7 +1652,7 @@
       </c>
       <c r="O44" s="11"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B45" s="10" t="s">
         <v>58</v>
       </c>
@@ -1554,7 +1661,7 @@
       </c>
       <c r="O45" s="11"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
         <v>58</v>
       </c>
@@ -1563,7 +1670,7 @@
       </c>
       <c r="O46" s="11"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>58</v>
       </c>
@@ -1572,7 +1679,7 @@
       </c>
       <c r="O47" s="11"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
         <v>58</v>
       </c>
@@ -1581,7 +1688,7 @@
       </c>
       <c r="O48" s="11"/>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B49" s="10" t="s">
         <v>57</v>
       </c>
@@ -1590,7 +1697,7 @@
       </c>
       <c r="O49" s="11"/>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B50" s="10" t="s">
         <v>57</v>
       </c>
@@ -1599,7 +1706,7 @@
       </c>
       <c r="O50" s="11"/>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>57</v>
       </c>
@@ -1608,7 +1715,7 @@
       </c>
       <c r="O51" s="11"/>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
         <v>57</v>
       </c>
@@ -1617,7 +1724,7 @@
       </c>
       <c r="O52" s="11"/>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
         <v>63</v>
       </c>
@@ -1626,7 +1733,7 @@
       </c>
       <c r="O53" s="11"/>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
         <v>63</v>
       </c>
@@ -1635,7 +1742,7 @@
       </c>
       <c r="O54" s="11"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>63</v>
       </c>
@@ -1644,7 +1751,7 @@
       </c>
       <c r="O55" s="11"/>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>63</v>
       </c>
@@ -1653,64 +1760,64 @@
       </c>
       <c r="O56" s="11"/>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C57" t="s">
         <v>35</v>
       </c>
       <c r="O57" s="11"/>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C58" t="s">
         <v>34</v>
       </c>
       <c r="O58" s="11"/>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C59" t="s">
         <v>41</v>
       </c>
       <c r="O59" s="11"/>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C60" t="s">
         <v>36</v>
       </c>
       <c r="O60" s="11"/>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C61" t="s">
         <v>37</v>
       </c>
       <c r="O61" s="11"/>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C62" t="s">
         <v>38</v>
       </c>
       <c r="O62" s="11"/>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C63" t="s">
         <v>40</v>
       </c>
       <c r="O63" s="11"/>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C64" t="s">
         <v>39</v>
       </c>
       <c r="O64" s="11"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O65" s="11"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O66" s="11"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O67" s="11"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A68" s="9" t="s">
         <v>13</v>
       </c>
@@ -1735,9 +1842,9 @@
       <c r="N68" s="25"/>
       <c r="O68" s="11"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A69" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -1754,7 +1861,7 @@
       <c r="N69" s="14"/>
       <c r="O69" s="11"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -1763,86 +1870,86 @@
       </c>
       <c r="O70" s="11"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C71" t="s">
         <v>21</v>
       </c>
       <c r="N71"/>
       <c r="O71" s="11"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C72" t="s">
         <v>23</v>
       </c>
       <c r="O72" s="11"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C73" t="s">
         <v>42</v>
       </c>
       <c r="O73" s="11"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C74" t="s">
         <v>43</v>
       </c>
       <c r="O74" s="11"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C75" t="s">
         <v>53</v>
       </c>
       <c r="O75" s="11"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C76" t="s">
         <v>54</v>
       </c>
       <c r="O76" s="11"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O77" s="11"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O78" s="11"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O79" s="11"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O80" s="11"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O81" s="11"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O82" s="11"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C83" t="s">
         <v>29</v>
       </c>
       <c r="O83" s="11"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C84" t="s">
         <v>22</v>
       </c>
       <c r="O84" s="11"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C85" t="s">
         <v>26</v>
       </c>
       <c r="O85" s="11"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C86" t="s">
         <v>30</v>
       </c>
       <c r="O86" s="11"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A87" s="19" t="s">
         <v>15</v>
       </c>
@@ -1861,13 +1968,13 @@
       <c r="N87" s="26"/>
       <c r="O87" s="11"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C88" t="s">
         <v>52</v>
       </c>
       <c r="O88" s="11"/>
     </row>
-    <row r="89" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>46</v>
       </c>
@@ -1876,34 +1983,34 @@
       </c>
       <c r="O89" s="11"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C90" t="s">
         <v>50</v>
       </c>
       <c r="O90" s="11"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C91" t="s">
         <v>55</v>
       </c>
       <c r="O91" s="11"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O92" s="11"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O93" s="11"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O94" s="11"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O95" s="11"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O96" s="11"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A97" s="20" t="s">
         <v>44</v>
       </c>
@@ -1922,45 +2029,45 @@
       <c r="N97" s="13"/>
       <c r="O97" s="11"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O98" s="11"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C99" t="s">
         <v>24</v>
       </c>
       <c r="O99" s="11"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C100" t="s">
         <v>25</v>
       </c>
       <c r="O100" s="11"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C101" t="s">
         <v>27</v>
       </c>
       <c r="O101" s="11"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C102" t="s">
         <v>12</v>
       </c>
       <c r="O102" s="11"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O103" s="11"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O104" s="11"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O105" s="11"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A106" s="21" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
@@ -1977,79 +2084,88 @@
       <c r="N106" s="16"/>
       <c r="O106" s="11"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C107" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="O107" s="11"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C108" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O108" s="11"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O109" s="11"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O110" s="11"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O111" s="11"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O112" s="11"/>
     </row>
-    <row r="113" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O113" s="11"/>
     </row>
-    <row r="114" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O114" s="11"/>
     </row>
-    <row r="115" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O115" s="11"/>
     </row>
-    <row r="116" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O116" s="11"/>
     </row>
-    <row r="117" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O117" s="11"/>
     </row>
-    <row r="118" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O118" s="11"/>
     </row>
-    <row r="119" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O119" s="11"/>
     </row>
-    <row r="120" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O120" s="11"/>
     </row>
-    <row r="121" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O121" s="11"/>
     </row>
-    <row r="122" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="122" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O122" s="11"/>
     </row>
-    <row r="123" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O123" s="11"/>
     </row>
-    <row r="124" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="124" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O124" s="11"/>
     </row>
-    <row r="125" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="125" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O125" s="11"/>
     </row>
-    <row r="126" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="126" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O126" s="11"/>
     </row>
-    <row r="127" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O127" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L3" xr:uid="{C33F91FC-7C85-47EF-AEEB-B77C51324CF6}"/>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1" tooltip="Technique/PRE-T1070" display="https://attack.mitre.org/pre-attack/index.php/Technique/PRE-T1070" xr:uid="{5C5AA1F3-84C9-4ED8-86E0-89128D355F22}"/>
+    <hyperlink ref="B11" r:id="rId2" tooltip="Technique/PRE-T1070" display="https://attack.mitre.org/pre-attack/index.php/Technique/PRE-T1070" xr:uid="{91BCA2F5-D705-4F67-977A-FCF8B2A71727}"/>
+    <hyperlink ref="B7" r:id="rId3" tooltip="Technique/PRE-T1031" display="https://attack.mitre.org/pre-attack/index.php/Technique/PRE-T1031" xr:uid="{96A4FD33-6DA1-4820-8BF3-8998311C1781}"/>
+    <hyperlink ref="B9" r:id="rId4" tooltip="Technique/PRE-T1031" display="https://attack.mitre.org/pre-attack/index.php/Technique/PRE-T1031" xr:uid="{11ADE615-24B8-44C4-82E9-E381C88CB13C}"/>
+    <hyperlink ref="B10" r:id="rId5" tooltip="Technique/PRE-T1031" display="https://attack.mitre.org/pre-attack/index.php/Technique/PRE-T1031" xr:uid="{56725B3E-E888-423E-B6AD-B309F4DD2B26}"/>
+    <hyperlink ref="B3" r:id="rId6" tooltip="Technique/PRE-T1032" display="https://attack.mitre.org/pre-attack/index.php/Technique/PRE-T1032" xr:uid="{4A0B4BE1-5893-4ADA-A00F-202986E2DE9B}"/>
+    <hyperlink ref="B8" r:id="rId7" tooltip="Technique/PRE-T1031" display="https://attack.mitre.org/pre-attack/index.php/Technique/PRE-T1031" xr:uid="{50C6D583-3DF3-4D28-A143-22F652797137}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -2061,9 +2177,9 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="15" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K15" t="s">
         <v>13</v>
       </c>

--- a/Security_UseCase_Library.xlsx
+++ b/Security_UseCase_Library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jor-El\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F7AE91CC-CDED-41F8-8A65-599EC94F230D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DD31DC5A-346F-4977-8A98-66996E68B31C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9600" windowWidth="27429" windowHeight="11160" tabRatio="603" xr2:uid="{EE7B458D-6060-45BC-A3B6-2902E40EF5B4}"/>
+    <workbookView xWindow="0" yWindow="10200" windowWidth="27429" windowHeight="11160" tabRatio="603" xr2:uid="{EE7B458D-6060-45BC-A3B6-2902E40EF5B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="151">
   <si>
     <t>Use Case</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>Successful Exploitation - IDS Detection</t>
-  </si>
-  <si>
-    <t>Determine 3rd party infrastructure services</t>
   </si>
   <si>
     <t>Malware C2 - Threat Intelligence Correlation</t>
@@ -382,12 +379,6 @@
     <t xml:space="preserve">High Entropy Email Sender Address </t>
   </si>
   <si>
-    <t>Suspicious Email Campaign [Single Sender]</t>
-  </si>
-  <si>
-    <t>Suspicious Email Campaign [Multiple Sender]</t>
-  </si>
-  <si>
     <t>Suspicious Email Campaign [Multiple Sender|Multiple Subjects]</t>
   </si>
   <si>
@@ -473,6 +464,36 @@
   </si>
   <si>
     <t xml:space="preserve">If the domain name of an email sender has been registered within the lasst [x] days (recommendation is 3), it should be considered as suspicious. An alert should be generated for each domain that is detected, and that alert should contain an aggregate of all emails sent from this domain. This use case depends on obtaining the sender domain and running it against up-to-date whois data to verify when the domain was registered. If this alert is seen within an organisation, it is likely that a phishing campaign may be happening. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a domain does not resolve to an IP address, this is usually a sign that a dns record was created and forged for the purposes of staging attacks. Rarely does somebody create a domain or subdomain and forget to assign an IP address. This use case correlates with Whois data and information and looks up whether the domain resolves to an IP. </t>
+  </si>
+  <si>
+    <t>High Entropy Email Subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An email address that has a high entropy score (meaning the occurance an email contains random characters) is usually indicative that the sender address is not legitimate. This type of activity or behaviour is often carried out by spam campaigns or phishing campaigns. This correlation will depend on tools that can rate the frequency of string matches. One such open source tool is freq.py (link) which does this. The output is a frequency score. Applying this tool and correlating with other sources will be highlighted in other use cases in this library. </t>
+  </si>
+  <si>
+    <t>Email Phishing campaigns that are opportunistic often have subjects that contain high entropy strings in the subject.</t>
+  </si>
+  <si>
+    <t>Suspicious Email Campaign - Subject line [Single Sender]</t>
+  </si>
+  <si>
+    <t>Suspicious Email Campaign - attachment [Single Sender]</t>
+  </si>
+  <si>
+    <t>Email|Email Gateway|Email Sandbox</t>
+  </si>
+  <si>
+    <t>There are multiple patterns that an email campaign is delivered. One method is from a single email sender, delivered to multiple recipients. When analyzing malware campaigns, and looking at subject lines, there are multiple subject line strings that are common amongst them. This use case matches specific strings in a given list with the subject line  delivered to a specified number of recipients.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are multiple patterns that an email campaign is delivered. One method is from a single email sender, delivered to multiple recipients. When analyzing malware campaigns, and looking at subject lines, there are multiple subject line strings that are common amongst them. This use case matches specific strings in a  subject line  delivered to a specified number of recipients </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is another pattern in which email campaigns are delivered. Cybercriminals that understand detection of email campaigns from different senders can be easily mitgated by blocking the send, hence they have developed tactics which deliver an email multiple email subjects from multiple users. This use case will rely on threat intelligence, correlation list and machine learning to determine how specific subject lines and email addresses tie back to the same campaign based on pattern matching techniques, pivot and contextual data and time based factors. </t>
   </si>
 </sst>
 </file>
@@ -639,7 +660,7 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -683,6 +704,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1014,8 +1038,8 @@
   <dimension ref="A1:O127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1037,16 +1061,16 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -1079,7 +1103,7 @@
         <v>16</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -1103,28 +1127,28 @@
     </row>
     <row r="3" spans="1:15" ht="146.15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="31" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" t="s">
         <v>70</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="O3" s="11"/>
     </row>
@@ -1133,19 +1157,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="29" t="s">
+      <c r="F4" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="G4" s="29" t="s">
         <v>79</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>80</v>
       </c>
       <c r="O4" s="11"/>
     </row>
@@ -1154,13 +1178,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -1174,411 +1198,375 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B7" s="30" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:15" ht="74.599999999999994" x14ac:dyDescent="0.6">
       <c r="B8" s="30" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" s="27"/>
       <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:15" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B9" s="30" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:15" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B10" s="30" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:15" ht="131.15" x14ac:dyDescent="0.4">
       <c r="B11" s="30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:15" ht="145.75" x14ac:dyDescent="0.4">
       <c r="B12" s="30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" ht="95.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="C15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="C16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" s="11"/>
+    </row>
+    <row r="17" spans="1:15" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="C17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O17" s="11"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="11"/>
+    </row>
+    <row r="19" spans="1:15" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="C19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D12" t="s">
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:15" ht="102" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="1:15" ht="102" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="1:15" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O23" s="11"/>
+    </row>
+    <row r="24" spans="1:15" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O25" s="11"/>
+    </row>
+    <row r="26" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" ht="102" x14ac:dyDescent="0.4">
+      <c r="C27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O27" s="11"/>
+    </row>
+    <row r="28" spans="1:15" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="C28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:15" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="C29" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O29" s="11"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="C30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" t="s">
+        <v>113</v>
+      </c>
+      <c r="O30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" t="s">
         <v>94</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" t="s">
-        <v>71</v>
-      </c>
-      <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
-      <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="1:15" ht="95.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" t="s">
-        <v>71</v>
-      </c>
-      <c r="O14" s="11"/>
-    </row>
-    <row r="15" spans="1:15" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" t="s">
-        <v>71</v>
-      </c>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:15" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" t="s">
-        <v>71</v>
-      </c>
-      <c r="O16" s="11"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="O17" s="11"/>
-    </row>
-    <row r="18" spans="1:15" ht="189.45" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" t="s">
-        <v>76</v>
-      </c>
-      <c r="O18" s="11"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" spans="1:15" ht="131.15" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O20" s="11"/>
-    </row>
-    <row r="21" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="O21" s="11"/>
-    </row>
-    <row r="22" spans="1:15" ht="102" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="O22" s="11"/>
-    </row>
-    <row r="23" spans="1:15" ht="102" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="O23" s="11"/>
-    </row>
-    <row r="24" spans="1:15" ht="131.15" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="O24" s="11"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" t="s">
-        <v>98</v>
-      </c>
-      <c r="O25" s="11"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" t="s">
-        <v>111</v>
-      </c>
-      <c r="O26" s="11"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" t="s">
-        <v>111</v>
-      </c>
-      <c r="O27" s="11"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" t="s">
-        <v>111</v>
-      </c>
-      <c r="O28" s="11"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" t="s">
-        <v>111</v>
-      </c>
-      <c r="O29" s="11"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" t="s">
-        <v>116</v>
-      </c>
-      <c r="O30" s="11"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" t="s">
-        <v>95</v>
       </c>
       <c r="O31" s="11"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O33" s="11"/>
     </row>
@@ -1587,7 +1575,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O35" s="11"/>
     </row>
@@ -1605,13 +1593,13 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O40" s="11"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1636,7 +1624,7 @@
     </row>
     <row r="43" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
         <v>32</v>
@@ -1645,52 +1633,52 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O44" s="11"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B45" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O45" s="11"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O46" s="11"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
         <v>58</v>
-      </c>
-      <c r="C47" t="s">
-        <v>59</v>
       </c>
       <c r="O47" s="11"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O48" s="11"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B49" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
         <v>17</v>
@@ -1699,7 +1687,7 @@
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B50" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
@@ -1708,7 +1696,7 @@
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
         <v>19</v>
@@ -1717,7 +1705,7 @@
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B52" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
         <v>20</v>
@@ -1726,85 +1714,85 @@
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B53" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" t="s">
         <v>63</v>
-      </c>
-      <c r="C53" t="s">
-        <v>64</v>
       </c>
       <c r="O53" s="11"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O54" s="11"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O55" s="11"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O56" s="11"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O57" s="11"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O58" s="11"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O59" s="11"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O60" s="11"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O61" s="11"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O62" s="11"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O63" s="11"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O64" s="11"/>
     </row>
@@ -1844,7 +1832,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A69" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -1863,10 +1851,10 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O70" s="11"/>
     </row>
@@ -1885,25 +1873,25 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O73" s="11"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O74" s="11"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O75" s="11"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O76" s="11"/>
     </row>
@@ -1970,28 +1958,28 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C88" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O88" s="11"/>
     </row>
     <row r="89" spans="1:15" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O89" s="11"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O90" s="11"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C91" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O91" s="11"/>
     </row>
@@ -2012,7 +2000,7 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A97" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -2067,7 +2055,7 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A106" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
@@ -2086,13 +2074,13 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C107" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O107" s="11"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C108" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O108" s="11"/>
     </row>

--- a/Security_UseCase_Library.xlsx
+++ b/Security_UseCase_Library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jor-El\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DD31DC5A-346F-4977-8A98-66996E68B31C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CA175493-7E4E-4065-A6A8-26AC1DA6FFA0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10200" windowWidth="27429" windowHeight="11160" tabRatio="603" xr2:uid="{EE7B458D-6060-45BC-A3B6-2902E40EF5B4}"/>
+    <workbookView xWindow="0" yWindow="11400" windowWidth="27429" windowHeight="11160" tabRatio="603" xr2:uid="{EE7B458D-6060-45BC-A3B6-2902E40EF5B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="161">
   <si>
     <t>Use Case</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Motivation/Group/Actor</t>
   </si>
   <si>
-    <t>Exploit Kit</t>
-  </si>
-  <si>
     <t>Watering Hole</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>Client side exploit, Server Side exploit C2 download</t>
   </si>
   <si>
-    <t>Shell Access</t>
-  </si>
-  <si>
     <t>SNMP Walk</t>
   </si>
   <si>
@@ -205,34 +199,7 @@
     <t>Explloit Public-Facing Application</t>
   </si>
   <si>
-    <t>WAF - Exploit Code Blocked/Detected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDS/IPS - Web Attack Detected </t>
-  </si>
-  <si>
-    <t>WAF - Web Attack Blocked/Detected</t>
-  </si>
-  <si>
     <t>Initial Access</t>
-  </si>
-  <si>
-    <t>Spearphishing Attachment</t>
-  </si>
-  <si>
-    <t>Spearphishing - Malicious Payload Detected</t>
-  </si>
-  <si>
-    <t>Phishing - Malicious Payload Detected</t>
-  </si>
-  <si>
-    <t>Spearphishing - Malicious Link Detected</t>
-  </si>
-  <si>
-    <t>Phishing - Malicious LInk Detected</t>
-  </si>
-  <si>
-    <t>IPS/IDS - Exploit Code Detected</t>
   </si>
   <si>
     <t>Honey Email Token</t>
@@ -289,9 +256,6 @@
     <t>Depending on your organizations DNS infrastrucutre (Split DNS or single DNS), you can detect DNS transfer request either by DNS logging and querying for zone transfer requests in the logs, or alternatively, look for Firewall/IDS traffic on port 53 using the TCP protocol. This use case has multiple entries, one for each detectino logic.</t>
   </si>
   <si>
-    <t>Threat Intel - External Bot traffic detected</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -325,9 +289,6 @@
     <t>IDS/IPS</t>
   </si>
   <si>
-    <t>WAF</t>
-  </si>
-  <si>
     <t>DNS</t>
   </si>
   <si>
@@ -340,9 +301,6 @@
     <t>Suspicious Email Payload Detected</t>
   </si>
   <si>
-    <t>Exploit</t>
-  </si>
-  <si>
     <t>External Ping Sweep [IDS/IPS]</t>
   </si>
   <si>
@@ -358,12 +316,6 @@
     <t xml:space="preserve">Email Sender Domain Newly Registered </t>
   </si>
   <si>
-    <t>Exploit Code Blocked [IDS/IPS]</t>
-  </si>
-  <si>
-    <t>Web Attack Blocked [WAF]</t>
-  </si>
-  <si>
     <t>Threat Intel Activity [Inbound IP Address]</t>
   </si>
   <si>
@@ -382,9 +334,6 @@
     <t>Suspicious Email Campaign [Multiple Sender|Multiple Subjects]</t>
   </si>
   <si>
-    <t>IDS/IPS|Eploit</t>
-  </si>
-  <si>
     <t>Mitre [PRE &amp; POST ATT&amp;CK]</t>
   </si>
   <si>
@@ -427,9 +376,6 @@
     <t xml:space="preserve">This use case correlates email addresses from gathered threat intelligence, that have been used or are being used by attackers. </t>
   </si>
   <si>
-    <t>External Exploit attempt blocked/detected [IDS/IPS]</t>
-  </si>
-  <si>
     <t>External Ping Sweeps, like port scans, can also be detected using Network IDS/IPS, or WAF. The benefit of this is to give context of which systems in your external environment are being scoped/targetted. This information should be used in reporting and threat intelligence gathering.</t>
   </si>
   <si>
@@ -494,6 +440,92 @@
   </si>
   <si>
     <t xml:space="preserve">This is another pattern in which email campaigns are delivered. Cybercriminals that understand detection of email campaigns from different senders can be easily mitgated by blocking the send, hence they have developed tactics which deliver an email multiple email subjects from multiple users. This use case will rely on threat intelligence, correlation list and machine learning to determine how specific subject lines and email addresses tie back to the same campaign based on pattern matching techniques, pivot and contextual data and time based factors. </t>
+  </si>
+  <si>
+    <t>Exploit Code Detected [IDS/IPS]</t>
+  </si>
+  <si>
+    <t>IDS/IPS|Exploit</t>
+  </si>
+  <si>
+    <t>Web Attack Detected [WAF]</t>
+  </si>
+  <si>
+    <t>WAF|Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploit related signatures on the perimeter IPS/IDS indicate that an attacker is trying to penetrate the network. These are server-side exploits and can eitherr be part of delivery or, if successful, can be an attackers point of Initial access. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web application firewall actiivty indicate that an attack is attempting to potentially exploit weakness on your web applications. </t>
+  </si>
+  <si>
+    <t>Depending on the WAF policy, if the WAF rules triggered are not in blocking mode, it is recommended that they be put in block mode. 
+Secondly, the web server holding the application that was attacked should be investigated for signes of compromise. Addtional  detective and c controls such as an EDR, Application whitelisting and/or logging processes with command line on the system.</t>
+  </si>
+  <si>
+    <t>These alerts should be looked at and verified if successful. The usual way this acitivity is successful is if  the attacked system shows signs of compormise. In other words, there needs to be additional detective and forensic controls such as an EDR, Application whitelisting and/or logging processes with command line on the system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This use case attempts to correlate proxy logs with known watering hole attacks gathered from threat intelligence. This threat intelligence can be gathered by a provider or gathered by profiling traffic from proxy servers. </t>
+  </si>
+  <si>
+    <t>https://attack.mitre.org/wiki/Group/G0066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adversary OPSEC|Compromise 3rd party infrastructure to support delivery|Initial Access|Drive By Compromise
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploit Kit signatures should be enabled on your IDS/IPS perimeter solutions. Signatures triggered by the IDS should immediately be looked at for signs of compromise. If an IPS solution has exploit signatures </t>
+  </si>
+  <si>
+    <t>Local File Inclusion attempt [IDS/IPS]</t>
+  </si>
+  <si>
+    <t>IDS/IPS|Web Attack</t>
+  </si>
+  <si>
+    <t>Attackers often test multiple vulnerabilities on web applications. An IPS should be able to detect this type of activity and this activity should be investigated. The actiity information should also be used for reporting and intelligence gathering</t>
+  </si>
+  <si>
+    <t>IDS/IPS|Client side</t>
+  </si>
+  <si>
+    <t>Exploit Kit Detected [Threat Intel]</t>
+  </si>
+  <si>
+    <t>This use case correlates known exploit kit infrastructure with proxy, firewall,dns and other network sources. A good threat Intel Provider, or theat intel feeds should classify data and infrastracture.</t>
+  </si>
+  <si>
+    <t>Web Attack Detected [IDS/IPS]</t>
+  </si>
+  <si>
+    <t>Local File Inclusion attempt [Reverse Proxy]</t>
+  </si>
+  <si>
+    <t>Reverse Proxy| Web Attack</t>
+  </si>
+  <si>
+    <t>A reverse proxy is a good mechanism to detect attackers performing reconnaisance on web servers. This includes looking for local file inclusion attempts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web application information gathering detected [Reverese Proxy] </t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Windows Security Logs|Command Line|Web Application</t>
+  </si>
+  <si>
+    <t>Shell Access Detected</t>
+  </si>
+  <si>
+    <t>This use case detects Shell access granted to a user from an external source address. T</t>
+  </si>
+  <si>
+    <t>Web Injection Attack Detected</t>
   </si>
 </sst>
 </file>
@@ -706,7 +738,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1035,11 +1067,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C12B2B-7422-4F1F-BBB5-5E0168A91AA9}">
-  <dimension ref="A1:O127"/>
+  <dimension ref="A1:O124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1061,22 +1093,22 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>1</v>
@@ -1103,7 +1135,7 @@
         <v>16</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -1127,28 +1159,28 @@
     </row>
     <row r="3" spans="1:15" ht="146.15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="31" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="O3" s="11"/>
     </row>
@@ -1157,19 +1189,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>88</v>
-      </c>
       <c r="E4" s="29" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="O4" s="11"/>
     </row>
@@ -1178,13 +1210,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -1198,553 +1230,601 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B7" s="30" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:15" ht="74.599999999999994" x14ac:dyDescent="0.6">
       <c r="B8" s="30" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G8" s="27"/>
       <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:15" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B9" s="30" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:15" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B10" s="30" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:15" ht="131.15" x14ac:dyDescent="0.4">
       <c r="B11" s="30" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:15" ht="145.75" x14ac:dyDescent="0.4">
       <c r="B12" s="30" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="C14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="C15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" ht="95.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="O16" s="11"/>
+    </row>
+    <row r="17" spans="1:15" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="C17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17" s="11"/>
+    </row>
+    <row r="18" spans="1:15" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="C18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+      <c r="O18" s="11"/>
+    </row>
+    <row r="19" spans="1:15" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="C19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:15" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="C21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F12" t="s">
-        <v>70</v>
-      </c>
-      <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="1:15" ht="95.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" t="s">
-        <v>70</v>
-      </c>
-      <c r="O14" s="11"/>
-    </row>
-    <row r="15" spans="1:15" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="C15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" t="s">
-        <v>70</v>
-      </c>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:15" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="C16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" t="s">
-        <v>70</v>
-      </c>
-      <c r="O16" s="11"/>
-    </row>
-    <row r="17" spans="1:15" ht="189.45" x14ac:dyDescent="0.4">
-      <c r="C17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" t="s">
-        <v>75</v>
-      </c>
-      <c r="O17" s="11"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="11"/>
-    </row>
-    <row r="19" spans="1:15" ht="131.15" x14ac:dyDescent="0.4">
-      <c r="C19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="C20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="O20" s="11"/>
-    </row>
-    <row r="21" spans="1:15" ht="102" x14ac:dyDescent="0.4">
-      <c r="C21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="O21" s="11"/>
-    </row>
-    <row r="22" spans="1:15" ht="102" x14ac:dyDescent="0.4">
-      <c r="C22" t="s">
-        <v>138</v>
-      </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="O22" s="11"/>
     </row>
-    <row r="23" spans="1:15" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" ht="102" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="O23" s="11"/>
     </row>
-    <row r="24" spans="1:15" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" ht="102" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" ht="131.15" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="O25" s="11"/>
     </row>
-    <row r="26" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" ht="87.45" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="O26" s="11"/>
     </row>
-    <row r="27" spans="1:15" ht="102" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" ht="131.15" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>147</v>
+        <v>95</v>
+      </c>
+      <c r="D27" t="s">
+        <v>94</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="O27" s="11"/>
     </row>
-    <row r="28" spans="1:15" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>147</v>
+        <v>124</v>
+      </c>
+      <c r="D28" t="s">
+        <v>94</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="O28" s="11"/>
     </row>
-    <row r="29" spans="1:15" ht="131.15" x14ac:dyDescent="0.4">
-      <c r="C29" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" t="s">
-        <v>110</v>
+    <row r="29" spans="1:15" ht="102" x14ac:dyDescent="0.4">
+      <c r="C29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="O29" s="11"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" t="s">
-        <v>113</v>
+    <row r="30" spans="1:15" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="C30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="O30" s="11"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C31" t="s">
-        <v>106</v>
+    <row r="31" spans="1:15" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="C31" s="32" t="s">
+        <v>96</v>
       </c>
       <c r="D31" t="s">
         <v>94</v>
       </c>
+      <c r="E31" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="O31" s="11"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" ht="102" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>134</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="O32" s="11"/>
     </row>
-    <row r="33" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="C33" s="1" t="s">
-        <v>128</v>
+    <row r="33" spans="1:15" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="C33" t="s">
+        <v>135</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>136</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="O33" s="11"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="B34" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N34" s="23" t="s">
+        <v>142</v>
+      </c>
       <c r="O34" s="11"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="B35" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>99</v>
+      </c>
+      <c r="D35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="O35" s="11"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="C36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="O36" s="11"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O37" s="11"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A38" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
       <c r="O38" s="11"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
       <c r="O39" s="11"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="O40" s="11"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A41" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
+      <c r="B41" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" t="s">
+        <v>159</v>
+      </c>
       <c r="O41" s="11"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B42" s="10"/>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="O42" s="11"/>
     </row>
-    <row r="43" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A43" s="1" t="s">
-        <v>47</v>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B43" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="O43" s="11"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B44" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="O44" s="11"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B45" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="O45" s="11"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="O46" s="11"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="O47" s="11"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="O48" s="11"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B49" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O49" s="11"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B50" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" t="s">
-        <v>18</v>
-      </c>
+      <c r="B50" s="10"/>
       <c r="O50" s="11"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B51" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" t="s">
-        <v>19</v>
-      </c>
+      <c r="B51" s="10"/>
       <c r="O51" s="11"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B52" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" t="s">
-        <v>20</v>
-      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="1"/>
       <c r="O52" s="11"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B53" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" t="s">
-        <v>63</v>
-      </c>
+      <c r="B53" s="10"/>
       <c r="O53" s="11"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B54" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="O54" s="11"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B55" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>65</v>
+      <c r="C55" t="s">
+        <v>32</v>
       </c>
       <c r="O55" s="11"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B56" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="C56" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="O56" s="11"/>
     </row>
@@ -1756,143 +1836,134 @@
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C58" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O58" s="11"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C59" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O59" s="11"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C60" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O60" s="11"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O61" s="11"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C62" t="s">
-        <v>37</v>
-      </c>
       <c r="O62" s="11"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C63" t="s">
-        <v>39</v>
-      </c>
       <c r="O63" s="11"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C64" t="s">
-        <v>38</v>
-      </c>
       <c r="O64" s="11"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A65" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N65" s="25"/>
       <c r="O65" s="11"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A66" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
       <c r="O66" s="11"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" t="s">
+        <v>43</v>
+      </c>
       <c r="O67" s="11"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A68" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N68" s="25"/>
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="N68"/>
       <c r="O68" s="11"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A69" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
+      <c r="C69" t="s">
+        <v>22</v>
+      </c>
       <c r="O69" s="11"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
-        <v>46</v>
-      </c>
       <c r="C70" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O70" s="11"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C71" t="s">
-        <v>21</v>
-      </c>
-      <c r="N71"/>
+        <v>41</v>
+      </c>
       <c r="O71" s="11"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C72" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="O72" s="11"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C73" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="O73" s="11"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C74" t="s">
-        <v>42</v>
-      </c>
       <c r="O74" s="11"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C75" t="s">
-        <v>52</v>
-      </c>
       <c r="O75" s="11"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C76" t="s">
-        <v>53</v>
-      </c>
       <c r="O76" s="11"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.4">
@@ -1905,12 +1976,21 @@
       <c r="O79" s="11"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="C80" t="s">
+        <v>28</v>
+      </c>
       <c r="O80" s="11"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="C81" t="s">
+        <v>21</v>
+      </c>
       <c r="O81" s="11"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="C82" t="s">
+        <v>25</v>
+      </c>
       <c r="O82" s="11"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.4">
@@ -1920,67 +2000,58 @@
       <c r="O83" s="11"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C84" t="s">
-        <v>22</v>
-      </c>
+      <c r="A84" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="26"/>
       <c r="O84" s="11"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C85" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="O85" s="11"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="O86" s="11"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A87" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="26"/>
+      <c r="C87" t="s">
+        <v>47</v>
+      </c>
       <c r="O87" s="11"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C88" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O88" s="11"/>
     </row>
-    <row r="89" spans="1:15" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A89" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C89" t="s">
-        <v>50</v>
-      </c>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O89" s="11"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C90" t="s">
-        <v>49</v>
-      </c>
       <c r="O90" s="11"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C91" t="s">
-        <v>54</v>
-      </c>
       <c r="O91" s="11"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.4">
@@ -1990,98 +2061,98 @@
       <c r="O93" s="11"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A94" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
       <c r="O94" s="11"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O95" s="11"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="C96" t="s">
+        <v>23</v>
+      </c>
       <c r="O96" s="11"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A97" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
-      <c r="J97" s="13"/>
-      <c r="K97" s="13"/>
-      <c r="L97" s="13"/>
-      <c r="M97" s="13"/>
-      <c r="N97" s="13"/>
+      <c r="C97" t="s">
+        <v>24</v>
+      </c>
       <c r="O97" s="11"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="C98" t="s">
+        <v>26</v>
+      </c>
       <c r="O98" s="11"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C99" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="O99" s="11"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C100" t="s">
-        <v>25</v>
-      </c>
       <c r="O100" s="11"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C101" t="s">
-        <v>27</v>
-      </c>
       <c r="O101" s="11"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C102" t="s">
-        <v>12</v>
-      </c>
       <c r="O102" s="11"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A103" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="16"/>
+      <c r="L103" s="16"/>
+      <c r="M103" s="16"/>
+      <c r="N103" s="16"/>
       <c r="O103" s="11"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="C104" t="s">
+        <v>100</v>
+      </c>
       <c r="O104" s="11"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="C105" t="s">
+        <v>103</v>
+      </c>
       <c r="O105" s="11"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A106" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="16"/>
-      <c r="J106" s="16"/>
-      <c r="K106" s="16"/>
-      <c r="L106" s="16"/>
-      <c r="M106" s="16"/>
-      <c r="N106" s="16"/>
       <c r="O106" s="11"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C107" t="s">
-        <v>117</v>
-      </c>
       <c r="O107" s="11"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C108" t="s">
-        <v>120</v>
-      </c>
       <c r="O108" s="11"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.4">
@@ -2131,15 +2202,6 @@
     </row>
     <row r="124" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O124" s="11"/>
-    </row>
-    <row r="125" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O125" s="11"/>
-    </row>
-    <row r="126" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O126" s="11"/>
-    </row>
-    <row r="127" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O127" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L3" xr:uid="{C33F91FC-7C85-47EF-AEEB-B77C51324CF6}"/>
@@ -2151,9 +2213,11 @@
     <hyperlink ref="B10" r:id="rId5" tooltip="Technique/PRE-T1031" display="https://attack.mitre.org/pre-attack/index.php/Technique/PRE-T1031" xr:uid="{56725B3E-E888-423E-B6AD-B309F4DD2B26}"/>
     <hyperlink ref="B3" r:id="rId6" tooltip="Technique/PRE-T1032" display="https://attack.mitre.org/pre-attack/index.php/Technique/PRE-T1032" xr:uid="{4A0B4BE1-5893-4ADA-A00F-202986E2DE9B}"/>
     <hyperlink ref="B8" r:id="rId7" tooltip="Technique/PRE-T1031" display="https://attack.mitre.org/pre-attack/index.php/Technique/PRE-T1031" xr:uid="{50C6D583-3DF3-4D28-A143-22F652797137}"/>
+    <hyperlink ref="B34" r:id="rId8" tooltip="Technique/PRE-T1089" display="https://attack.mitre.org/pre-attack/index.php/Technique/PRE-T1089" xr:uid="{028DDFDF-72F2-4FCE-8406-88614BBB669E}"/>
+    <hyperlink ref="B35" r:id="rId9" tooltip="Technique/PRE-T1089" display="https://attack.mitre.org/pre-attack/index.php/Technique/PRE-T1089" xr:uid="{3E0224D2-40A9-4BB6-96E4-B062D5F836F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/Security_UseCase_Library.xlsx
+++ b/Security_UseCase_Library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70174ac422d41def/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{337CD812-AA7C-41B6-BBF3-4A1289D76C1A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6BE85CAF-9367-4661-AD2F-226541D8F9B9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12600" windowWidth="27430" windowHeight="11160" tabRatio="603" xr2:uid="{EE7B458D-6060-45BC-A3B6-2902E40EF5B4}"/>
+    <workbookView xWindow="0" yWindow="13800" windowWidth="27429" windowHeight="11160" tabRatio="603" xr2:uid="{EE7B458D-6060-45BC-A3B6-2902E40EF5B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="174">
   <si>
     <t>Use Case</t>
   </si>
@@ -128,15 +128,6 @@
   </si>
   <si>
     <t>Extraction</t>
-  </si>
-  <si>
-    <t>i.e. Lateral movement, post breach enumeration, credential harvesting, post breach exploitation</t>
-  </si>
-  <si>
-    <t>Second stage download, memory attack of binary</t>
-  </si>
-  <si>
-    <t>Client side exploit, Server Side exploit C2 download</t>
   </si>
   <si>
     <t>SNMP Walk</t>
@@ -556,6 +547,24 @@
   </si>
   <si>
     <t>Depending on your organizations DNS infrastructure (Split DNS or single DNS), you can detect DNS transfer request either by DNS logging and querying for zone transfer requests in the logs, or alternatively, look for Firewall/IDS traffic on port 53 using the TCP protocol. This use case has multiple entries, one for each detection logic.</t>
+  </si>
+  <si>
+    <t>Propagation (i.e. Lateral movement, post breach enumeration, credential harvesting, post breach exploitation)</t>
+  </si>
+  <si>
+    <t>This looks for attempts to extract inforation out of misconfigured xml content by checking for the queries.</t>
+  </si>
+  <si>
+    <t>Binary inside Email Attachment [IDS/IPS]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This detection attempts to detect any bindaries within an email attachment. This is based on signature detection, sanboxing technologies and packet analysis. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suspicious binary executed from temp folder </t>
+  </si>
+  <si>
+    <t>Suspicious binary execurted by autoruns.inf via USB</t>
   </si>
 </sst>
 </file>
@@ -1103,41 +1112,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C12B2B-7422-4F1F-BBB5-5E0168A91AA9}">
   <dimension ref="A1:V126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.6328125" customWidth="1"/>
-    <col min="2" max="2" width="31.81640625" customWidth="1"/>
-    <col min="3" max="3" width="40.81640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="5" max="5" width="55.90625" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" customWidth="1"/>
-    <col min="7" max="7" width="20.90625" customWidth="1"/>
-    <col min="8" max="8" width="19.1796875" customWidth="1"/>
-    <col min="9" max="9" width="20.90625" customWidth="1"/>
-    <col min="10" max="10" width="27.7265625" customWidth="1"/>
-    <col min="11" max="11" width="46.36328125" customWidth="1"/>
-    <col min="13" max="13" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.08984375" style="22" customWidth="1"/>
-    <col min="15" max="15" width="20.36328125" customWidth="1"/>
+    <col min="1" max="1" width="26.61328125" customWidth="1"/>
+    <col min="2" max="2" width="31.84375" customWidth="1"/>
+    <col min="3" max="3" width="40.84375" customWidth="1"/>
+    <col min="4" max="4" width="20.61328125" customWidth="1"/>
+    <col min="5" max="5" width="55.921875" customWidth="1"/>
+    <col min="6" max="6" width="19.07421875" customWidth="1"/>
+    <col min="7" max="7" width="20.921875" customWidth="1"/>
+    <col min="8" max="8" width="19.15234375" customWidth="1"/>
+    <col min="9" max="9" width="20.921875" customWidth="1"/>
+    <col min="10" max="10" width="27.69140625" customWidth="1"/>
+    <col min="11" max="11" width="46.3828125" customWidth="1"/>
+    <col min="13" max="13" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.07421875" style="22" customWidth="1"/>
+    <col min="15" max="15" width="20.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -1149,10 +1158,10 @@
         <v>1</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>3</v>
@@ -1164,18 +1173,18 @@
         <v>5</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N1" s="17" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="33" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1191,86 +1200,98 @@
       <c r="M2" s="8"/>
       <c r="N2" s="12"/>
       <c r="V2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="146.15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>151</v>
+      </c>
       <c r="B3" s="30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="V3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
       <c r="B4" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H4" s="11"/>
       <c r="V4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
       <c r="B5" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>56</v>
-      </c>
       <c r="E5" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
       <c r="H5" s="11"/>
       <c r="V5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -1279,240 +1300,287 @@
       </c>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>151</v>
+      </c>
       <c r="B7" s="29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:22" ht="74.599999999999994" x14ac:dyDescent="0.6">
+      <c r="A8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:22" ht="74.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>151</v>
+      </c>
       <c r="B9" s="29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:22" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:22" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:22" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
         <v>162</v>
       </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:22" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:22" ht="145" x14ac:dyDescent="0.35">
-      <c r="B12" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:22" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:22" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:22" ht="95.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="C15" s="1" t="s">
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:14" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:14" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:14" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:22" ht="95.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="C17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="C18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C19" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="C20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="3"/>
       <c r="H20" s="11"/>
       <c r="M20" s="34" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>151</v>
+      </c>
       <c r="C21" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -1522,7 +1590,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="11"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -1530,222 +1598,279 @@
       <c r="M22" s="5"/>
       <c r="N22" s="23"/>
     </row>
-    <row r="23" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
       <c r="C23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:14" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:14" ht="102" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:14" ht="102" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:14" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:14" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:14" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="C24" t="s">
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:14" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" ht="102" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:14" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:14" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="D24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="C25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="C26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="C27" t="s">
+      <c r="D33" t="s">
         <v>66</v>
       </c>
-      <c r="D27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="C28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="C29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="C30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="C31" s="1" t="s">
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="1:14" ht="102" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="D34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="C32" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="C33" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="C34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="H34" s="11"/>
       <c r="K34" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="116" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H35" s="11"/>
       <c r="K35" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
       <c r="B36" s="29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H36" s="11"/>
       <c r="N36" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
       <c r="B37" s="29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D37" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H38" s="11"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="H39" s="11"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1753,7 +1878,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="11"/>
+      <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
@@ -1761,185 +1886,266 @@
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>113</v>
+      </c>
       <c r="C41" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>35</v>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>113</v>
       </c>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>113</v>
+      </c>
       <c r="B43" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>113</v>
+      </c>
       <c r="B44" s="10"/>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D44" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>113</v>
+      </c>
       <c r="B45" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>113</v>
+      </c>
       <c r="B46" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>113</v>
+      </c>
       <c r="B47" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>113</v>
+      </c>
       <c r="B48" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H48" s="11"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>113</v>
+      </c>
       <c r="B49" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H49" s="11"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>113</v>
+      </c>
       <c r="B50" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>113</v>
+      </c>
       <c r="B51" s="10"/>
+      <c r="C51" t="s">
+        <v>172</v>
+      </c>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>113</v>
+      </c>
       <c r="B52" s="10"/>
+      <c r="C52" t="s">
+        <v>173</v>
+      </c>
       <c r="H52" s="11"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>113</v>
+      </c>
       <c r="B53" s="10"/>
       <c r="H53" s="11"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
       <c r="B54" s="10"/>
       <c r="C54" s="1"/>
       <c r="H54" s="11"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
       <c r="B55" s="10"/>
       <c r="H55" s="11"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>113</v>
+      </c>
       <c r="C56" t="s">
         <v>23</v>
       </c>
       <c r="D56" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H56" s="11"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
       <c r="C57" t="s">
         <v>22</v>
       </c>
       <c r="H57" s="11"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>113</v>
+      </c>
       <c r="C58" t="s">
         <v>29</v>
       </c>
       <c r="H58" s="11"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
       <c r="C59" t="s">
         <v>24</v>
       </c>
       <c r="H59" s="11"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>113</v>
+      </c>
       <c r="C60" t="s">
         <v>25</v>
       </c>
       <c r="H60" s="11"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>113</v>
+      </c>
       <c r="C61" t="s">
         <v>26</v>
       </c>
       <c r="H61" s="11"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>113</v>
+      </c>
       <c r="C62" t="s">
         <v>28</v>
       </c>
       <c r="H62" s="11"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>113</v>
+      </c>
       <c r="C63" t="s">
         <v>27</v>
       </c>
       <c r="H63" s="11"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>113</v>
+      </c>
       <c r="H64" s="11"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>113</v>
+      </c>
       <c r="H65" s="11"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>113</v>
+      </c>
       <c r="H66" s="11"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A67" s="9" t="s">
         <v>9</v>
       </c>
@@ -1951,7 +2157,7 @@
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
-      <c r="H67" s="11"/>
+      <c r="H67" s="9"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
@@ -1961,9 +2167,9 @@
       </c>
       <c r="N67" s="24"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A68" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -1971,7 +2177,7 @@
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
-      <c r="H68" s="11"/>
+      <c r="H68" s="14"/>
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
       <c r="K68" s="14"/>
@@ -1979,97 +2185,145 @@
       <c r="M68" s="14"/>
       <c r="N68" s="14"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H69" s="11"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
       <c r="C70" t="s">
         <v>13</v>
       </c>
       <c r="H70" s="11"/>
       <c r="N70"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
       <c r="C71" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H71" s="11"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
       <c r="C72" t="s">
         <v>30</v>
       </c>
       <c r="H72" s="11"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
       <c r="C73" t="s">
         <v>31</v>
       </c>
       <c r="H73" s="11"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>70</v>
+      </c>
       <c r="C74" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H74" s="11"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>70</v>
+      </c>
       <c r="C75" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H75" s="11"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>70</v>
+      </c>
       <c r="H76" s="11"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>70</v>
+      </c>
       <c r="H77" s="11"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>70</v>
+      </c>
       <c r="H78" s="11"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>70</v>
+      </c>
       <c r="H79" s="11"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>70</v>
+      </c>
       <c r="H80" s="11"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>70</v>
+      </c>
       <c r="H81" s="11"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>70</v>
+      </c>
       <c r="C82" t="s">
         <v>19</v>
       </c>
       <c r="H82" s="11"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>70</v>
+      </c>
       <c r="C83" t="s">
         <v>14</v>
       </c>
       <c r="H83" s="11"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>70</v>
+      </c>
       <c r="C84" t="s">
         <v>17</v>
       </c>
       <c r="H84" s="11"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>70</v>
+      </c>
       <c r="C85" t="s">
         <v>20</v>
       </c>
       <c r="H85" s="11"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A86" s="19" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
@@ -2077,7 +2331,7 @@
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
       <c r="G86" s="15"/>
-      <c r="H86" s="11"/>
+      <c r="H86" s="15"/>
       <c r="I86" s="15"/>
       <c r="J86" s="15"/>
       <c r="K86" s="15"/>
@@ -2085,49 +2339,73 @@
       <c r="M86" s="15"/>
       <c r="N86" s="25"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
       <c r="C87" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H87" s="11"/>
     </row>
-    <row r="88" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" t="s">
+        <v>34</v>
+      </c>
+      <c r="H88" s="11"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" t="s">
         <v>33</v>
       </c>
-      <c r="C88" t="s">
+      <c r="H89" s="11"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
         <v>37</v>
       </c>
-      <c r="H88" s="11"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C89" t="s">
-        <v>36</v>
-      </c>
-      <c r="H89" s="11"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C90" t="s">
-        <v>40</v>
-      </c>
       <c r="H90" s="11"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>11</v>
+      </c>
       <c r="H91" s="11"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>11</v>
+      </c>
       <c r="H92" s="11"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
       <c r="H93" s="11"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
       <c r="H94" s="11"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
       <c r="H95" s="11"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A96" s="20" t="s">
         <v>32</v>
       </c>
@@ -2137,7 +2415,7 @@
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
-      <c r="H96" s="11"/>
+      <c r="H96" s="13"/>
       <c r="I96" s="13"/>
       <c r="J96" s="13"/>
       <c r="K96" s="13"/>
@@ -2145,45 +2423,45 @@
       <c r="M96" s="13"/>
       <c r="N96" s="13"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H97" s="11"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C98" t="s">
         <v>15</v>
       </c>
       <c r="H98" s="11"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C99" t="s">
         <v>16</v>
       </c>
       <c r="H99" s="11"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C100" t="s">
         <v>18</v>
       </c>
       <c r="H100" s="11"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C101" t="s">
         <v>8</v>
       </c>
       <c r="H101" s="11"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H102" s="11"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H103" s="11"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H104" s="11"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A105" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
@@ -2191,7 +2469,7 @@
       <c r="E105" s="16"/>
       <c r="F105" s="16"/>
       <c r="G105" s="16"/>
-      <c r="H105" s="11"/>
+      <c r="H105" s="16"/>
       <c r="I105" s="16"/>
       <c r="J105" s="16"/>
       <c r="K105" s="16"/>
@@ -2199,79 +2477,79 @@
       <c r="M105" s="16"/>
       <c r="N105" s="16"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C106" t="s">
+        <v>72</v>
+      </c>
+      <c r="H106" s="11"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="C107" t="s">
         <v>75</v>
       </c>
-      <c r="H106" s="11"/>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C107" t="s">
-        <v>78</v>
-      </c>
       <c r="H107" s="11"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H108" s="11"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H109" s="11"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H110" s="11"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H111" s="11"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H112" s="11"/>
     </row>
-    <row r="113" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H113" s="11"/>
     </row>
-    <row r="114" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H114" s="11"/>
     </row>
-    <row r="115" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H115" s="11"/>
     </row>
-    <row r="116" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H116" s="11"/>
     </row>
-    <row r="117" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H117" s="11"/>
     </row>
-    <row r="118" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H118" s="11"/>
     </row>
-    <row r="119" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H119" s="11"/>
     </row>
-    <row r="120" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H120" s="11"/>
     </row>
-    <row r="121" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H121" s="11"/>
     </row>
-    <row r="122" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H122" s="11"/>
     </row>
-    <row r="123" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H123" s="11"/>
     </row>
-    <row r="124" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H124" s="11"/>
     </row>
-    <row r="125" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H125" s="11"/>
     </row>
-    <row r="126" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H126" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L3" xr:uid="{C33F91FC-7C85-47EF-AEEB-B77C51324CF6}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H120" xr:uid="{7EF60F04-2E81-41A5-BE09-7B54CFBAD658}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H23:H39 H69:H85 H41:H66 H3:H21 H87:H95 H97:H104 H106:H120" xr:uid="{7EF60F04-2E81-41A5-BE09-7B54CFBAD658}">
       <formula1>$V$2:$V$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -2300,9 +2578,9 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="15" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K15" t="s">
         <v>9</v>
       </c>

--- a/Security_UseCase_Library.xlsx
+++ b/Security_UseCase_Library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70174ac422d41def/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6BE85CAF-9367-4661-AD2F-226541D8F9B9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D8DB20F-7A17-4E23-A5EB-F48E84813E06}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="13800" windowWidth="27429" windowHeight="11160" tabRatio="603" xr2:uid="{EE7B458D-6060-45BC-A3B6-2902E40EF5B4}"/>
+    <workbookView xWindow="0" yWindow="16200" windowWidth="27429" windowHeight="11160" tabRatio="603" xr2:uid="{EE7B458D-6060-45BC-A3B6-2902E40EF5B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="186">
   <si>
     <t>Use Case</t>
   </si>
@@ -100,22 +100,7 @@
     <t>Malware C2 - Threat Intelligence Correlation</t>
   </si>
   <si>
-    <t>Malware C2 - IPS Signature for C2 triggered</t>
-  </si>
-  <si>
-    <t>Malware C2 - User Agent String - Known Bad</t>
-  </si>
-  <si>
-    <t>Malware C2 - User Agent String - New</t>
-  </si>
-  <si>
-    <t>Malware C2 - User Agent String - Rare</t>
-  </si>
-  <si>
     <t>Malware C2 - Direct to IP</t>
-  </si>
-  <si>
-    <t>Malware C2 - DGA Generated Domain</t>
   </si>
   <si>
     <t>Malware C2 - Newly Registered Domain</t>
@@ -381,9 +366,6 @@
   </si>
   <si>
     <t>Cross Site Scripting Detected [IDS/IPS]</t>
-  </si>
-  <si>
-    <t>Cross Site Scripting Detected [EDR/Endpoint]</t>
   </si>
   <si>
     <t>Web Injection Attack Detected [IDS/IPS]</t>
@@ -564,7 +546,61 @@
     <t xml:space="preserve">Suspicious binary executed from temp folder </t>
   </si>
   <si>
-    <t>Suspicious binary execurted by autoruns.inf via USB</t>
+    <t>Malware C2 - DGA Generated Domain Detected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malware C2 - Rare User Agent String </t>
+  </si>
+  <si>
+    <t>Malware C2 - New User Agent String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malware C2 - Known Bad User Agent String </t>
+  </si>
+  <si>
+    <t>Malware C2 - IPS Signature for C2 Triggered</t>
+  </si>
+  <si>
+    <t>Suspicious Commands detected on Web Servers</t>
+  </si>
+  <si>
+    <t>This att</t>
+  </si>
+  <si>
+    <t>Cross Site Scripting Compromise Detected [EDR/Endpoint]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The purpose of this use case is to detect cross site scripting attacks being hosted on corporate owned web servers. </t>
+  </si>
+  <si>
+    <t>Web Application|Web Server|IDS/IPS</t>
+  </si>
+  <si>
+    <t>Web Server|EDR|HIDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This detection looks for signs of exploitation off cross site scripting vulnerabilities on the endpoint. Signs of exploitation </t>
+  </si>
+  <si>
+    <t>HIDS|EDR|Endpoint|Antivirus</t>
+  </si>
+  <si>
+    <t>This detection looks for signs of exploitation off cross site scripting vulnerabilities on the endpoint. Signs of exploitation looks for the tampering of common vectors susch as login.php scripts</t>
+  </si>
+  <si>
+    <t>Suspicious binary executed from USB</t>
+  </si>
+  <si>
+    <t>Suspicious WMI Invoking Powershell</t>
+  </si>
+  <si>
+    <t>Suspicious WMI invoking cmd.exe</t>
+  </si>
+  <si>
+    <t>Suspicious cmd.exe Invoking Powershell</t>
+  </si>
+  <si>
+    <t>Suspicious binary executed by autoruns.inf via USB. Binary execution includes</t>
   </si>
 </sst>
 </file>
@@ -731,7 +767,7 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -783,6 +819,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1113,17 +1176,17 @@
   <dimension ref="A1:V126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.61328125" customWidth="1"/>
+    <col min="1" max="1" width="16.15234375" customWidth="1"/>
     <col min="2" max="2" width="31.84375" customWidth="1"/>
-    <col min="3" max="3" width="40.84375" customWidth="1"/>
+    <col min="3" max="3" width="27.4609375" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.61328125" customWidth="1"/>
-    <col min="5" max="5" width="55.921875" customWidth="1"/>
+    <col min="5" max="5" width="55.921875" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.07421875" customWidth="1"/>
     <col min="7" max="7" width="20.921875" customWidth="1"/>
     <col min="8" max="8" width="19.15234375" customWidth="1"/>
@@ -1137,18 +1200,18 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -1158,10 +1221,10 @@
         <v>1</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>3</v>
@@ -1173,23 +1236,23 @@
         <v>5</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="N1" s="17" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="33" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="E2" s="36"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="12"/>
@@ -1200,383 +1263,383 @@
       <c r="M2" s="8"/>
       <c r="N2" s="12"/>
       <c r="V2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="146.15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
+        <v>78</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="V3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>43</v>
+      <c r="C4" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H4" s="11"/>
       <c r="V4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>50</v>
+      <c r="C5" s="28" t="s">
+        <v>45</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
       <c r="H5" s="11"/>
       <c r="V5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:22" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:22" ht="74.599999999999994" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:22" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:22" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
+        <v>77</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:22" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" t="s">
-        <v>160</v>
+        <v>76</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:22" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" t="s">
-        <v>162</v>
+        <v>76</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:22" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" t="s">
-        <v>99</v>
+        <v>145</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:22" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:22" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:22" ht="95.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:14" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:14" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:14" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H20" s="11"/>
       <c r="M20" s="34" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="189.45" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H21" s="11"/>
     </row>
@@ -1585,9 +1648,9 @@
         <v>10</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -1603,16 +1666,16 @@
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H23" s="11"/>
     </row>
@@ -1620,14 +1683,14 @@
       <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" t="s">
-        <v>65</v>
+      <c r="C24" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H24" s="11"/>
     </row>
@@ -1635,14 +1698,14 @@
       <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="C25" t="s">
-        <v>58</v>
+      <c r="C25" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H25" s="11"/>
     </row>
@@ -1650,14 +1713,14 @@
       <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="C26" t="s">
-        <v>84</v>
+      <c r="C26" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H26" s="11"/>
     </row>
@@ -1665,14 +1728,14 @@
       <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="C27" t="s">
-        <v>63</v>
+      <c r="C27" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H27" s="11"/>
     </row>
@@ -1680,14 +1743,14 @@
       <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="C28" t="s">
-        <v>62</v>
+      <c r="C28" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H28" s="11"/>
     </row>
@@ -1695,14 +1758,14 @@
       <c r="A29" t="s">
         <v>10</v>
       </c>
-      <c r="C29" t="s">
-        <v>67</v>
+      <c r="C29" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H29" s="11"/>
     </row>
@@ -1710,14 +1773,14 @@
       <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="C30" t="s">
-        <v>86</v>
+      <c r="C30" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H30" s="11"/>
     </row>
@@ -1726,13 +1789,13 @@
         <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H31" s="11"/>
     </row>
@@ -1741,13 +1804,13 @@
         <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H32" s="11"/>
     </row>
@@ -1756,13 +1819,13 @@
         <v>10</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H33" s="11"/>
     </row>
@@ -1770,36 +1833,36 @@
       <c r="A34" t="s">
         <v>10</v>
       </c>
-      <c r="C34" t="s">
-        <v>91</v>
+      <c r="C34" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H34" s="11"/>
       <c r="K34" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>10</v>
       </c>
-      <c r="C35" t="s">
-        <v>93</v>
+      <c r="C35" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H35" s="11"/>
       <c r="K35" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="72.900000000000006" x14ac:dyDescent="0.4">
@@ -1807,20 +1870,20 @@
         <v>10</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" t="s">
-        <v>73</v>
+        <v>92</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H36" s="11"/>
       <c r="N36" s="22" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="72.900000000000006" x14ac:dyDescent="0.4">
@@ -1828,16 +1891,16 @@
         <v>10</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" t="s">
-        <v>71</v>
+        <v>92</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H37" s="11"/>
     </row>
@@ -1845,14 +1908,14 @@
       <c r="A38" t="s">
         <v>10</v>
       </c>
-      <c r="C38" t="s">
-        <v>102</v>
+      <c r="C38" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H38" s="11"/>
     </row>
@@ -1860,321 +1923,353 @@
       <c r="A39" t="s">
         <v>10</v>
       </c>
-      <c r="C39" t="s">
-        <v>170</v>
+      <c r="C39" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H39" s="11"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A40" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
+    <row r="40" spans="1:14" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H40" s="11"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" t="s">
-        <v>143</v>
+        <v>10</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="H41" s="11"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>10</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="1:14" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C43" t="s">
-        <v>114</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>118</v>
+        <v>138</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="H43" s="11"/>
-      <c r="I43" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="58.3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>113</v>
-      </c>
-      <c r="B44" s="10"/>
-      <c r="C44" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>145</v>
+        <v>10</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H44" s="11"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C45" t="s">
-        <v>103</v>
-      </c>
-      <c r="H45" s="11"/>
+      <c r="H45" s="22"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C46" t="s">
-        <v>91</v>
-      </c>
-      <c r="H46" s="11"/>
+      <c r="A46" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N46" s="24"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" t="s">
-        <v>93</v>
-      </c>
-      <c r="H47" s="11"/>
+      <c r="A47" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H48" s="11"/>
+    </row>
+    <row r="49" spans="1:9" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H49" s="11"/>
+      <c r="I49" t="s">
         <v>113</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" t="s">
-        <v>71</v>
-      </c>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>113</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" t="s">
-        <v>115</v>
-      </c>
-      <c r="H49" s="11"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" t="s">
-        <v>116</v>
+        <v>138</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>113</v>
-      </c>
-      <c r="B51" s="10"/>
-      <c r="C51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H51" s="11"/>
+    </row>
+    <row r="52" spans="1:9" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H52" s="11"/>
+    </row>
+    <row r="53" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H53" s="11"/>
+    </row>
+    <row r="54" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H54" s="11"/>
+    </row>
+    <row r="55" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="11"/>
+    </row>
+    <row r="56" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="11"/>
+    </row>
+    <row r="57" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" t="s">
+        <v>49</v>
+      </c>
+      <c r="H57" s="11"/>
+    </row>
+    <row r="58" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H58" s="11"/>
+    </row>
+    <row r="59" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H59" s="11"/>
+    </row>
+    <row r="60" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H60" s="11"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" s="11"/>
+    </row>
+    <row r="62" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H51" s="11"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>113</v>
-      </c>
-      <c r="B52" s="10"/>
-      <c r="C52" t="s">
-        <v>173</v>
-      </c>
-      <c r="H52" s="11"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>113</v>
-      </c>
-      <c r="B53" s="10"/>
-      <c r="H53" s="11"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>113</v>
-      </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="1"/>
-      <c r="H54" s="11"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>113</v>
-      </c>
-      <c r="B55" s="10"/>
-      <c r="H55" s="11"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" t="s">
-        <v>54</v>
-      </c>
-      <c r="H56" s="11"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" s="11"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>113</v>
-      </c>
-      <c r="C58" t="s">
-        <v>29</v>
-      </c>
-      <c r="H58" s="11"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" t="s">
-        <v>24</v>
-      </c>
-      <c r="H59" s="11"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" s="11"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>113</v>
-      </c>
-      <c r="C61" t="s">
-        <v>26</v>
-      </c>
-      <c r="H61" s="11"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62" t="s">
-        <v>28</v>
-      </c>
       <c r="H62" s="11"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>113</v>
-      </c>
-      <c r="C63" t="s">
-        <v>27</v>
+        <v>108</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="H63" s="11"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>113</v>
+        <v>108</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="H64" s="11"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:14" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>108</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="H65" s="11"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H66" s="11"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A67" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N67" s="24"/>
+      <c r="A67" t="s">
+        <v>108</v>
+      </c>
+      <c r="H67" s="11"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A68" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
+      <c r="C68" s="40"/>
       <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
+      <c r="E68" s="40"/>
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
@@ -2187,148 +2282,148 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>70</v>
-      </c>
-      <c r="C69" t="s">
-        <v>146</v>
+        <v>65</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="H69" s="11"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H70" s="11"/>
       <c r="N70"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:14" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71" t="s">
-        <v>147</v>
+        <v>65</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="H71" s="11"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72" t="s">
-        <v>30</v>
+        <v>65</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="H72" s="11"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:14" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>70</v>
-      </c>
-      <c r="C73" t="s">
-        <v>31</v>
+        <v>65</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="H73" s="11"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" t="s">
-        <v>35</v>
+        <v>65</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="H74" s="11"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>70</v>
-      </c>
-      <c r="C75" t="s">
-        <v>36</v>
+        <v>65</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H75" s="11"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H76" s="11"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H77" s="11"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H78" s="11"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H79" s="11"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H80" s="11"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H81" s="11"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>70</v>
-      </c>
-      <c r="C82" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H82" s="11"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>70</v>
-      </c>
-      <c r="C83" t="s">
+        <v>65</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H83" s="11"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>70</v>
-      </c>
-      <c r="C84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H84" s="11"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>70</v>
-      </c>
-      <c r="C85" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H85" s="11"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A86" s="19" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
+      <c r="C86" s="41"/>
       <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
+      <c r="E86" s="41"/>
       <c r="F86" s="15"/>
       <c r="G86" s="15"/>
       <c r="H86" s="15"/>
@@ -2343,17 +2438,17 @@
       <c r="A87" t="s">
         <v>11</v>
       </c>
-      <c r="C87" t="s">
-        <v>148</v>
+      <c r="C87" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="H87" s="11"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:14" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>11</v>
       </c>
-      <c r="C88" t="s">
-        <v>34</v>
+      <c r="C88" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="H88" s="11"/>
     </row>
@@ -2361,17 +2456,17 @@
       <c r="A89" t="s">
         <v>11</v>
       </c>
-      <c r="C89" t="s">
-        <v>33</v>
+      <c r="C89" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="H89" s="11"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:14" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>11</v>
       </c>
-      <c r="C90" t="s">
-        <v>37</v>
+      <c r="C90" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="H90" s="11"/>
     </row>
@@ -2407,12 +2502,12 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A96" s="20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
+      <c r="C96" s="42"/>
       <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
+      <c r="E96" s="42"/>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
       <c r="H96" s="13"/>
@@ -2427,25 +2522,25 @@
       <c r="H97" s="11"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C98" t="s">
+      <c r="C98" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H98" s="11"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C99" t="s">
+      <c r="C99" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H99" s="11"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C100" t="s">
+      <c r="C100" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H100" s="11"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C101" t="s">
+      <c r="C101" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H101" s="11"/>
@@ -2461,12 +2556,12 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A105" s="21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
+      <c r="C105" s="43"/>
       <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
+      <c r="E105" s="43"/>
       <c r="F105" s="16"/>
       <c r="G105" s="16"/>
       <c r="H105" s="16"/>
@@ -2478,14 +2573,14 @@
       <c r="N105" s="16"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C106" t="s">
-        <v>72</v>
+      <c r="C106" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="H106" s="11"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C107" t="s">
-        <v>75</v>
+      <c r="C107" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="H107" s="11"/>
     </row>
@@ -2549,7 +2644,7 @@
   </sheetData>
   <autoFilter ref="A1:L3" xr:uid="{C33F91FC-7C85-47EF-AEEB-B77C51324CF6}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H23:H39 H69:H85 H41:H66 H3:H21 H87:H95 H97:H104 H106:H120" xr:uid="{7EF60F04-2E81-41A5-BE09-7B54CFBAD658}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H69:H85 H3:H21 H87:H95 H97:H104 H106:H120 H23:H46 H48:H67" xr:uid="{7EF60F04-2E81-41A5-BE09-7B54CFBAD658}">
       <formula1>$V$2:$V$5</formula1>
     </dataValidation>
   </dataValidations>
